--- a/docs/Notes/ContinuousEstimation.xlsx
+++ b/docs/Notes/ContinuousEstimation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Uniform</t>
   </si>
@@ -67,10 +67,6 @@
     <t>Private Return</t>
   </si>
   <si>
-    <t>Mean
-Estimation</t>
-  </si>
-  <si>
     <t>Midpoints</t>
   </si>
   <si>
@@ -86,10 +82,6 @@
     <t>* Probably could use something for this, but safest to just ignore.</t>
   </si>
   <si>
-    <t>(New) Mean
-Usage</t>
-  </si>
-  <si>
     <t>-INF</t>
   </si>
   <si>
@@ -132,9 +124,6 @@
     <t>initial funds ($)</t>
   </si>
   <si>
-    <t>Binomial Option</t>
-  </si>
-  <si>
     <t>Altered</t>
   </si>
   <si>
@@ -147,17 +136,37 @@
     <t>*By law of one price, this should equal the expected appreciation. It does not, so we use hedging/leverage.</t>
   </si>
   <si>
+    <t>Experimenting with continous variables, put-call parity, portfolio construction.</t>
+  </si>
+  <si>
+    <t>Central Estimate</t>
+  </si>
+  <si>
     <t>** For similicity, I chose (4.2/4), so as to approximate something that should shift the quantiles over one column (and be a simple 5%).
-You'll notice that the red quantiles have not truly been subjectively input, and are merely shifted (with a leftmost zero and rightmost sum(a,b)).</t>
-  </si>
-  <si>
-    <t>Experimenting with continous variables, put-call parity, portfolio construction.</t>
-  </si>
-  <si>
-    <t>(Binomial only works to the degree that someone can purchase the underlying, and conduct arbitrage, so I'm not sure if there will be any benefit (many idea-futures lack such arbitrage-opportunities, and commodities already have futures markets [and the US CFTC did not allow InTrade to offer commodity futures markets]).</t>
-  </si>
-  <si>
-    <t>Central Estimate</t>
+You'll notice that the purple quantiles have not truly been subjectively input, and are merely shifted (with a leftmost zero and rightmost sum(a,b)).</t>
+  </si>
+  <si>
+    <t>Prices
+Post-Trade</t>
+  </si>
+  <si>
+    <t>Relevant Markets</t>
+  </si>
+  <si>
+    <t>Binomial Option Technique</t>
+  </si>
+  <si>
+    <t>(Binomial Option Technique only works to the degree that someone can purchase the underlying, and conduct arbitrage, so I'm not sure if there will be any benefit (many idea-futures lack such arbitrage-opportunities, and commodities already have futures markets [and the US CFTC did not allow InTrade to offer commodity futures markets]).</t>
+  </si>
+  <si>
+    <t>Market Prices
+Pre-Trade</t>
+  </si>
+  <si>
+    <t>Market Belief about Mean</t>
+  </si>
+  <si>
+    <t>Private Belief about Mean</t>
   </si>
 </sst>
 </file>
@@ -169,7 +178,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +204,13 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -233,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -371,15 +387,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -591,7 +598,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -602,31 +651,20 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
+      <top style="double">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -636,11 +674,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -669,9 +704,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -691,39 +723,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -732,7 +758,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -741,7 +767,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -756,79 +782,67 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -841,76 +855,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,7 +1078,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$8:$P$8</c:f>
+              <c:f>Sheet1!$I$8:$Q$8</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1010,7 +1113,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$13:$P$13</c:f>
+              <c:f>Sheet1!$I$13:$Q$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1054,11 +1157,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="96738816"/>
-        <c:axId val="58344576"/>
+        <c:axId val="111287808"/>
+        <c:axId val="67454080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96738816"/>
+        <c:axId val="111287808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1067,7 +1170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58344576"/>
+        <c:crossAx val="67454080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1075,7 +1178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58344576"/>
+        <c:axId val="67454080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,7 +1189,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96738816"/>
+        <c:crossAx val="111287808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1107,16 +1210,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>201704</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>537879</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>493058</xdr:colOff>
+      <xdr:colOff>22410</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1425,1547 +1528,1595 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AB44"/>
+  <dimension ref="A2:AC44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" customWidth="1"/>
-    <col min="21" max="23" width="16" customWidth="1"/>
-    <col min="24" max="24" width="10.42578125" customWidth="1"/>
-    <col min="25" max="25" width="16.140625" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" customWidth="1"/>
-    <col min="27" max="28" width="15" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" customWidth="1"/>
+    <col min="22" max="24" width="16" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" customWidth="1"/>
+    <col min="26" max="26" width="16.140625" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" customWidth="1"/>
+    <col min="28" max="29" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" ht="21" x14ac:dyDescent="0.35">
-      <c r="E2" s="98" t="s">
+    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+      <c r="F2" s="70" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H7" s="101"/>
+      <c r="L7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B8" s="49" t="str">
+        <f>COUNT(I11:P11)&amp;" Markets"</f>
+        <v>8 Markets</v>
+      </c>
+      <c r="D8" s="92" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E3" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G7" s="53"/>
-      <c r="K7" s="2"/>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F8" s="33" t="s">
+      <c r="E8" s="93"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="103">
+        <v>0</v>
+      </c>
+      <c r="I8" s="104">
+        <v>3.2</v>
+      </c>
+      <c r="J8" s="104">
+        <v>3.4</v>
+      </c>
+      <c r="K8" s="104">
+        <v>3.6</v>
+      </c>
+      <c r="L8" s="104">
+        <v>3.8</v>
+      </c>
+      <c r="M8" s="104">
+        <v>4</v>
+      </c>
+      <c r="N8" s="104">
+        <v>4.2</v>
+      </c>
+      <c r="O8" s="104">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P8" s="104">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q8" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="105"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="str">
+        <f>COUNT(I13:Q13)&amp;" Partitions"</f>
+        <v>9 Partitions</v>
+      </c>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="54">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="I8" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="J8" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="K8" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="L8" s="2">
-        <v>4</v>
-      </c>
-      <c r="M8" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="N8" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="O8" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="P8" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F9" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="2">
-        <f>LN(H8)</f>
+      <c r="H9" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="16">
+        <f>LN(I8)</f>
         <v>1.1631508098056809</v>
       </c>
-      <c r="I9" s="2">
-        <f t="shared" ref="I9:O9" si="0">LN(I8)</f>
+      <c r="J9" s="16">
+        <f t="shared" ref="J9:P9" si="0">LN(J8)</f>
         <v>1.2237754316221157</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="16">
         <f t="shared" si="0"/>
         <v>1.2809338454620642</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="16">
         <f t="shared" si="0"/>
         <v>1.33500106673234</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="16">
         <f t="shared" si="0"/>
         <v>1.3862943611198906</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="16">
         <f t="shared" si="0"/>
         <v>1.4350845252893227</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="16">
         <f t="shared" si="0"/>
         <v>1.4816045409242156</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="16">
         <f t="shared" si="0"/>
         <v>1.5260563034950492</v>
       </c>
-      <c r="P9" s="54" t="s">
+      <c r="Q9" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="10">
-        <f t="shared" ref="H10:O10" si="1">IFERROR(AVERAGE(H9:I9),"")</f>
+      <c r="R9" s="107"/>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" ref="I10:P10" si="1">IFERROR(AVERAGE(I9:J9),"")</f>
         <v>1.1934631207138984</v>
       </c>
-      <c r="I10" s="10">
+      <c r="J10" s="9">
         <f t="shared" si="1"/>
         <v>1.2523546385420898</v>
       </c>
-      <c r="J10" s="10">
+      <c r="K10" s="9">
         <f t="shared" si="1"/>
         <v>1.3079674560972021</v>
       </c>
-      <c r="K10" s="10">
+      <c r="L10" s="9">
         <f t="shared" si="1"/>
         <v>1.3606477139261153</v>
       </c>
-      <c r="L10" s="10">
+      <c r="M10" s="9">
         <f t="shared" si="1"/>
         <v>1.4106894432046067</v>
       </c>
-      <c r="M10" s="10">
+      <c r="N10" s="9">
         <f t="shared" si="1"/>
         <v>1.4583445331067693</v>
       </c>
-      <c r="N10" s="10">
+      <c r="O10" s="9">
         <f t="shared" si="1"/>
         <v>1.5038304222096324</v>
       </c>
-      <c r="O10" s="10">
+      <c r="P10" s="9">
         <f t="shared" si="1"/>
         <v>1.5260563034950492</v>
       </c>
-      <c r="P10" s="52" t="s">
+      <c r="Q10" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="1:24" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="96" t="s">
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="1:25" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="87"/>
+      <c r="F11" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="H11" s="76">
+      <c r="I11" s="66">
         <v>0.03</v>
       </c>
-      <c r="I11" s="77">
+      <c r="J11" s="67">
         <v>0.13</v>
       </c>
-      <c r="J11" s="77">
+      <c r="K11" s="67">
         <v>0.25</v>
       </c>
-      <c r="K11" s="77">
+      <c r="L11" s="67">
         <v>0.4</v>
       </c>
-      <c r="L11" s="77">
+      <c r="M11" s="67">
         <v>0.6</v>
       </c>
-      <c r="M11" s="77">
+      <c r="N11" s="67">
         <v>0.75</v>
       </c>
-      <c r="N11" s="77">
+      <c r="O11" s="67">
         <v>0.87</v>
       </c>
-      <c r="O11" s="78">
+      <c r="P11" s="68">
         <v>0.97</v>
       </c>
-      <c r="P11" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="51">
-        <f>AVERAGE(G11:P11)</f>
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+      <c r="R11" s="47">
+        <f>AVERAGE(H11:Q11)</f>
         <v>0.5</v>
       </c>
-      <c r="S11" s="55" t="str">
-        <f>COUNT(H11:O11)&amp;" Markets"</f>
-        <v>8 Markets</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="97"/>
-      <c r="F12" s="5" t="s">
+    </row>
+    <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6">
-        <f>1-H11</f>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <f>1-I11</f>
         <v>0.97</v>
       </c>
-      <c r="I12" s="6">
-        <f t="shared" ref="I12:J12" si="2">1-I11</f>
+      <c r="J12" s="5">
+        <f t="shared" ref="J12:K12" si="2">1-J11</f>
         <v>0.87</v>
       </c>
-      <c r="J12" s="6">
+      <c r="K12" s="5">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="K12" s="6">
-        <f t="shared" ref="K12" si="3">1-K11</f>
+      <c r="L12" s="5">
+        <f t="shared" ref="L12" si="3">1-L11</f>
         <v>0.6</v>
       </c>
-      <c r="L12" s="6">
-        <f>1-L11</f>
+      <c r="M12" s="5">
+        <f>1-M11</f>
         <v>0.4</v>
       </c>
-      <c r="M12" s="6">
-        <f>1-M11</f>
+      <c r="N12" s="5">
+        <f>1-N11</f>
         <v>0.25</v>
       </c>
-      <c r="N12" s="6">
-        <f>1-N11</f>
+      <c r="O12" s="5">
+        <f>1-O11</f>
         <v>0.13</v>
       </c>
-      <c r="O12" s="6">
-        <f>1-O11</f>
+      <c r="P12" s="5">
+        <f>1-P11</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="P12" s="7">
+      <c r="Q12" s="6">
         <v>0</v>
       </c>
-      <c r="Q12" s="15">
-        <f>AVERAGE(G12:P12)</f>
+      <c r="R12" s="13">
+        <f>AVERAGE(H12:Q12)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="88" t="s">
+    <row r="13" spans="1:25" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="8">
+      <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="H13" s="10">
-        <f>H11-G11</f>
+      <c r="I13" s="9">
+        <f>I11-H11</f>
         <v>0.03</v>
       </c>
-      <c r="I13" s="10">
-        <f>I11-H11</f>
+      <c r="J13" s="9">
+        <f>J11-I11</f>
         <v>0.1</v>
       </c>
-      <c r="J13" s="10">
-        <f t="shared" ref="J13:O13" si="4">J11-I11</f>
+      <c r="K13" s="9">
+        <f t="shared" ref="K13:P13" si="4">K11-J11</f>
         <v>0.12</v>
       </c>
-      <c r="K13" s="10">
+      <c r="L13" s="9">
         <f t="shared" si="4"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="L13" s="10">
+      <c r="M13" s="9">
         <f t="shared" si="4"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="M13" s="10">
+      <c r="N13" s="9">
         <f t="shared" si="4"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="N13" s="10">
+      <c r="O13" s="9">
         <f t="shared" si="4"/>
         <v>0.12</v>
       </c>
-      <c r="O13" s="10">
+      <c r="P13" s="9">
         <f t="shared" si="4"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="P13" s="10">
-        <f>P11-O11</f>
+      <c r="Q13" s="9">
+        <f>Q11-P11</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="Q13" s="14">
-        <f>SUM(H13:P13)</f>
-        <v>1</v>
-      </c>
-      <c r="R13" s="11"/>
-      <c r="S13" s="55" t="str">
-        <f>COUNT(H13:P13)&amp;" Partitions"</f>
-        <v>9 Partitions</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="5" t="s">
+      <c r="R13" s="12">
+        <f>SUM(I13:Q13)</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="10"/>
+    </row>
+    <row r="14" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="4">
         <v>0</v>
       </c>
-      <c r="H14" s="6">
-        <f>G12-H12</f>
+      <c r="I14" s="5">
+        <f>H12-I12</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="I14" s="6">
-        <f t="shared" ref="I14:O14" si="5">H12-I12</f>
+      <c r="J14" s="5">
+        <f t="shared" ref="J14:P14" si="5">I12-J12</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="5">
         <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
-      <c r="K14" s="6">
+      <c r="L14" s="5">
         <f t="shared" si="5"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="L14" s="6">
+      <c r="M14" s="5">
         <f t="shared" si="5"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="M14" s="6">
+      <c r="N14" s="5">
         <f t="shared" si="5"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="N14" s="6">
+      <c r="O14" s="5">
         <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
-      <c r="O14" s="6">
+      <c r="P14" s="5">
         <f t="shared" si="5"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="P14" s="6">
-        <f>O12-P12</f>
+      <c r="Q14" s="5">
+        <f>P12-Q12</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="Q14" s="16">
-        <f>SUM(H14:P14)</f>
-        <v>1</v>
-      </c>
-      <c r="R14" s="11"/>
-    </row>
-    <row r="15" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="88" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="10">
-        <f t="shared" ref="H15:N15" si="6">H13/SUM($H$13:$N$13)</f>
+      <c r="R14" s="14">
+        <f>SUM(I14:Q14)</f>
+        <v>1</v>
+      </c>
+      <c r="S14" s="10"/>
+    </row>
+    <row r="15" spans="1:25" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="99"/>
+      <c r="F15" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="9">
+        <f t="shared" ref="I15:O15" si="6">I13/SUM($I$13:$O$13)</f>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="I15" s="10">
+      <c r="J15" s="9">
         <f t="shared" si="6"/>
         <v>0.1149425287356322</v>
       </c>
-      <c r="J15" s="10">
+      <c r="K15" s="9">
         <f t="shared" si="6"/>
         <v>0.13793103448275862</v>
       </c>
-      <c r="K15" s="10">
+      <c r="L15" s="9">
         <f t="shared" si="6"/>
         <v>0.17241379310344832</v>
       </c>
-      <c r="L15" s="10">
+      <c r="M15" s="9">
         <f t="shared" si="6"/>
         <v>0.22988505747126431</v>
       </c>
-      <c r="M15" s="10">
+      <c r="N15" s="9">
         <f t="shared" si="6"/>
         <v>0.17241379310344832</v>
       </c>
-      <c r="N15" s="10">
+      <c r="O15" s="9">
         <f t="shared" si="6"/>
         <v>0.13793103448275862</v>
       </c>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="8">
-        <f>SUM(H15:N15)</f>
-        <v>1</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="X15" s="11"/>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="103">
-        <f>EXP(H16)</f>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="2">
+        <f>SUM(I15:O15)</f>
+        <v>1</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y15" s="10"/>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="75">
+        <f>EXP(I16)</f>
         <v>3.9879067517565376</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="99">
-        <f>SUMPRODUCT(H10:N10,H15:N15)</f>
+      <c r="C16" s="122"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="113" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="71">
+        <f>SUMPRODUCT(I10:O10,I15:O15)</f>
         <v>1.3832664696187358</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="5">
-        <f>SUM(H16:N16)</f>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="6">
+        <f>SUM(I16:O16)</f>
         <v>1.3832664696187358</v>
       </c>
-      <c r="R16" s="13"/>
-      <c r="X16" s="11"/>
-    </row>
-    <row r="17" spans="1:28" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="88" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="50">
+      <c r="S16" s="11"/>
+      <c r="Y16" s="10"/>
+    </row>
+    <row r="17" spans="1:29" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="99"/>
+      <c r="F17" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="46">
         <f>LN(B20)</f>
         <v>1.4320566337881677</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="11"/>
-      <c r="X17" s="11"/>
-    </row>
-    <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="104">
-        <f>(M8-L8)/L8</f>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="10"/>
+      <c r="Y17" s="10"/>
+    </row>
+    <row r="18" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="76">
+        <f>(N8-M8)/M8</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="58">
-        <f>H13/SUM($H$13:$N$13)</f>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="127"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="51">
+        <f>I13/SUM($I$13:$O$13)</f>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="I18" s="6">
-        <f t="shared" ref="I18:M18" si="7">I13/SUM($H$13:$N$13)</f>
+      <c r="J18" s="5">
+        <f t="shared" ref="J18:N18" si="7">J13/SUM($I$13:$O$13)</f>
         <v>0.1149425287356322</v>
       </c>
-      <c r="J18" s="6">
+      <c r="K18" s="5">
         <f t="shared" si="7"/>
         <v>0.13793103448275862</v>
       </c>
-      <c r="K18" s="6">
+      <c r="L18" s="5">
         <f t="shared" si="7"/>
         <v>0.17241379310344832</v>
       </c>
-      <c r="L18" s="6">
+      <c r="M18" s="5">
         <f t="shared" si="7"/>
         <v>0.22988505747126431</v>
       </c>
-      <c r="M18" s="6">
+      <c r="N18" s="5">
         <f t="shared" si="7"/>
         <v>0.17241379310344832</v>
       </c>
-      <c r="N18" s="36">
-        <f>N13/SUM($H$13:$N$13)</f>
+      <c r="O18" s="32">
+        <f>O13/SUM($I$13:$O$13)</f>
         <v>0.13793103448275862</v>
       </c>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="11"/>
-      <c r="X18" s="11"/>
-    </row>
-    <row r="19" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="E19" s="94" t="s">
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="10"/>
+      <c r="Y18" s="10"/>
+    </row>
+    <row r="19" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="87"/>
+      <c r="F19" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="H19" s="100">
+      <c r="I19" s="72">
         <v>0</v>
       </c>
-      <c r="I19" s="101">
-        <f>H13</f>
+      <c r="J19" s="73">
+        <f>I13</f>
         <v>0.03</v>
       </c>
-      <c r="J19" s="101">
-        <f t="shared" ref="J19:N19" si="8">I13</f>
+      <c r="K19" s="73">
+        <f t="shared" ref="K19:O19" si="8">J13</f>
         <v>0.1</v>
       </c>
-      <c r="K19" s="101">
+      <c r="L19" s="73">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="L19" s="101">
+      <c r="M19" s="73">
         <f t="shared" si="8"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="M19" s="101">
+      <c r="N19" s="73">
         <f t="shared" si="8"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="N19" s="101">
+      <c r="O19" s="73">
         <f t="shared" si="8"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="O19" s="101">
-        <f>N13</f>
+      <c r="P19" s="73">
+        <f>O13</f>
         <v>0.12</v>
       </c>
-      <c r="P19" s="102">
-        <f>SUM(O13:P13)</f>
+      <c r="Q19" s="74">
+        <f>SUM(P13:Q13)</f>
         <v>0.13</v>
       </c>
-      <c r="Q19" s="3">
-        <f>SUM(H19:P19)</f>
-        <v>1</v>
-      </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-    </row>
-    <row r="20" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="60">
+      <c r="R19" s="2">
+        <f>SUM(I19:Q19)</f>
+        <v>1</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="53">
         <f>B16*(1+B18)</f>
         <v>4.1873020893443647</v>
       </c>
-      <c r="E20" s="95"/>
-      <c r="F20" s="5" t="s">
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="5">
-        <f>G19</f>
+      <c r="H20" s="4">
+        <f>H19</f>
         <v>0</v>
       </c>
-      <c r="H20" s="26">
-        <f t="shared" ref="H20:P20" si="9">H19</f>
+      <c r="I20" s="22">
+        <f t="shared" ref="I20:Q20" si="9">I19</f>
         <v>0</v>
       </c>
-      <c r="I20" s="26">
-        <f>I19</f>
+      <c r="J20" s="22">
+        <f>J19</f>
         <v>0.03</v>
       </c>
-      <c r="J20" s="26">
+      <c r="K20" s="22">
         <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
-      <c r="K20" s="26">
+      <c r="L20" s="22">
         <f t="shared" si="9"/>
         <v>0.12</v>
       </c>
-      <c r="L20" s="26">
+      <c r="M20" s="22">
         <f t="shared" si="9"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="M20" s="26">
+      <c r="N20" s="22">
         <f t="shared" si="9"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="N20" s="26">
+      <c r="O20" s="22">
         <f t="shared" si="9"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="O20" s="26">
+      <c r="P20" s="22">
         <f t="shared" si="9"/>
         <v>0.12</v>
       </c>
-      <c r="P20" s="27">
+      <c r="Q20" s="23">
         <f t="shared" si="9"/>
         <v>0.13</v>
       </c>
-      <c r="Q20" s="7">
-        <f>SUM(H20:P20)</f>
-        <v>1</v>
-      </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E21" s="81" t="s">
+      <c r="R20" s="6">
+        <f>SUM(I20:Q20)</f>
+        <v>1</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="7">
         <v>0</v>
       </c>
-      <c r="H21" s="10">
-        <f>H19+G21</f>
+      <c r="I21" s="9">
+        <f>I19+H21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="10">
-        <f>I19+H21</f>
+      <c r="J21" s="9">
+        <f>J19+I21</f>
         <v>0.03</v>
       </c>
-      <c r="J21" s="10">
-        <f t="shared" ref="J21:O21" si="10">J19+I21</f>
+      <c r="K21" s="9">
+        <f t="shared" ref="K21:P21" si="10">K19+J21</f>
         <v>0.13</v>
       </c>
-      <c r="K21" s="10">
+      <c r="L21" s="9">
         <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
-      <c r="L21" s="10">
+      <c r="M21" s="9">
         <f t="shared" si="10"/>
         <v>0.4</v>
       </c>
-      <c r="M21" s="10">
+      <c r="N21" s="9">
         <f t="shared" si="10"/>
         <v>0.6</v>
       </c>
-      <c r="N21" s="10">
+      <c r="O21" s="9">
         <f t="shared" si="10"/>
         <v>0.75</v>
       </c>
-      <c r="O21" s="10">
+      <c r="P21" s="9">
         <f t="shared" si="10"/>
         <v>0.87</v>
       </c>
-      <c r="P21" s="35">
-        <f t="shared" ref="P21" si="11">P19+O21</f>
-        <v>1</v>
-      </c>
-      <c r="Q21" s="25">
-        <f>AVERAGE(G21:P21)</f>
+      <c r="Q21" s="31">
+        <f t="shared" ref="Q21" si="11">Q19+P21</f>
+        <v>1</v>
+      </c>
+      <c r="R21" s="21">
+        <f>AVERAGE(H21:Q21)</f>
         <v>0.40300000000000002</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-    </row>
-    <row r="22" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="81"/>
-      <c r="F22" s="5" t="s">
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D22" s="90"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="5">
-        <v>1</v>
-      </c>
-      <c r="H22" s="6">
-        <f>1-H21</f>
-        <v>1</v>
-      </c>
-      <c r="I22" s="6">
-        <f t="shared" ref="I22:N22" si="12">1-I21</f>
+      <c r="H22" s="118">
+        <v>1</v>
+      </c>
+      <c r="I22" s="119">
+        <f>1-I21</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="119">
+        <f t="shared" ref="J22:O22" si="12">1-J21</f>
         <v>0.97</v>
       </c>
-      <c r="J22" s="6">
+      <c r="K22" s="119">
         <f t="shared" si="12"/>
         <v>0.87</v>
       </c>
-      <c r="K22" s="6">
+      <c r="L22" s="119">
         <f t="shared" si="12"/>
         <v>0.75</v>
       </c>
-      <c r="L22" s="6">
+      <c r="M22" s="119">
         <f t="shared" si="12"/>
         <v>0.6</v>
       </c>
-      <c r="M22" s="6">
+      <c r="N22" s="119">
         <f t="shared" si="12"/>
         <v>0.4</v>
       </c>
-      <c r="N22" s="6">
+      <c r="O22" s="119">
         <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
-      <c r="O22" s="6">
-        <f>1-O21</f>
+      <c r="P22" s="119">
+        <f>1-P21</f>
         <v>0.13</v>
       </c>
-      <c r="P22" s="36">
-        <f>1-P21</f>
+      <c r="Q22" s="120">
+        <f>1-Q21</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="34">
-        <f>AVERAGE(G22:P22)</f>
+      <c r="R22" s="30">
+        <f>AVERAGE(H22:Q22)</f>
         <v>0.59699999999999998</v>
       </c>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-    </row>
-    <row r="23" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="79"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="9"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-    </row>
-    <row r="24" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2">
-        <f t="shared" ref="H24:P24" si="13">H21-H11</f>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+    </row>
+    <row r="23" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="69"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="8"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+    </row>
+    <row r="24" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1">
+        <f t="shared" ref="I24:Q24" si="13">I21-I11</f>
         <v>-0.03</v>
       </c>
-      <c r="I24" s="2">
+      <c r="J24" s="1">
         <f t="shared" si="13"/>
         <v>-0.1</v>
       </c>
-      <c r="J24" s="2">
+      <c r="K24" s="1">
         <f t="shared" si="13"/>
         <v>-0.12</v>
       </c>
-      <c r="K24" s="2">
+      <c r="L24" s="1">
         <f t="shared" si="13"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="L24" s="2">
+      <c r="M24" s="1">
         <f t="shared" si="13"/>
         <v>-0.19999999999999996</v>
       </c>
-      <c r="M24" s="2">
+      <c r="N24" s="1">
         <f t="shared" si="13"/>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="N24" s="2">
+      <c r="O24" s="1">
         <f t="shared" si="13"/>
         <v>-0.12</v>
       </c>
-      <c r="O24" s="2">
+      <c r="P24" s="1">
         <f t="shared" si="13"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="P24" s="2">
+      <c r="Q24" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="9"/>
-      <c r="S24" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="T24" s="83"/>
-      <c r="U24" s="83"/>
-      <c r="V24" s="83"/>
-      <c r="W24" s="84"/>
-      <c r="X24" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y24" s="83"/>
-      <c r="Z24" s="83"/>
-      <c r="AA24" s="83"/>
-      <c r="AB24" s="84"/>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="80"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="9"/>
-      <c r="S25" s="85"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="85"/>
-      <c r="Y25" s="86"/>
-      <c r="Z25" s="86"/>
-      <c r="AA25" s="86"/>
-      <c r="AB25" s="87"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B26" s="80"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="9"/>
-      <c r="S26" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="T26" s="18" t="s">
+      <c r="R24" s="8"/>
+      <c r="T24" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="80"/>
+      <c r="Y24" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="79"/>
+      <c r="AB24" s="79"/>
+      <c r="AC24" s="80"/>
+    </row>
+    <row r="25" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="85"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="8"/>
+      <c r="T25" s="81"/>
+      <c r="U25" s="82"/>
+      <c r="V25" s="82"/>
+      <c r="W25" s="82"/>
+      <c r="X25" s="83"/>
+      <c r="Y25" s="81"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="82"/>
+      <c r="AB25" s="82"/>
+      <c r="AC25" s="83"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B26" s="85"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="8"/>
+      <c r="T26" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="U26" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="U26" s="18" t="s">
+      <c r="V26" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="V26" s="18" t="s">
+      <c r="W26" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="W26" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="X26" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="18" t="s">
+      <c r="X26" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y26" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="Z26" s="18" t="s">
+      <c r="AA26" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AA26" s="18" t="s">
+      <c r="AB26" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AB26" s="29" t="s">
+      <c r="AC26" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B27" s="80"/>
-      <c r="E27" s="80" t="s">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B27" s="85"/>
+      <c r="F27" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="G27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="10">
-        <v>1</v>
-      </c>
-      <c r="I27" s="10">
-        <v>1</v>
-      </c>
-      <c r="J27" s="10">
-        <v>1</v>
-      </c>
-      <c r="K27" s="10">
-        <v>1</v>
-      </c>
-      <c r="L27" s="10">
-        <v>1</v>
-      </c>
-      <c r="M27" s="10">
-        <v>1</v>
-      </c>
-      <c r="N27" s="10">
-        <v>1</v>
-      </c>
-      <c r="O27" s="10">
-        <v>1</v>
-      </c>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="8">
-        <f>SUM(H27:O27)</f>
+      <c r="H27" s="16"/>
+      <c r="I27" s="9">
+        <v>1</v>
+      </c>
+      <c r="J27" s="9">
+        <v>1</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1</v>
+      </c>
+      <c r="L27" s="9">
+        <v>1</v>
+      </c>
+      <c r="M27" s="9">
+        <v>1</v>
+      </c>
+      <c r="N27" s="9">
+        <v>1</v>
+      </c>
+      <c r="O27" s="9">
+        <v>1</v>
+      </c>
+      <c r="P27" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="7">
+        <f>SUM(I27:P27)</f>
         <v>8</v>
       </c>
-      <c r="S27" s="28"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18"/>
-      <c r="AA27" s="18"/>
-      <c r="AB27" s="30"/>
-    </row>
-    <row r="28" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="80"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="5" t="s">
+      <c r="T27" s="24"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="26"/>
+    </row>
+    <row r="28" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="85"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="10">
-        <f>H27/$Q$27</f>
+      <c r="H28" s="17"/>
+      <c r="I28" s="9">
+        <f>I27/$R$27</f>
         <v>0.125</v>
       </c>
-      <c r="I28" s="10">
-        <f t="shared" ref="I28:O28" si="14">I27/$Q$27</f>
+      <c r="J28" s="9">
+        <f t="shared" ref="J28:P28" si="14">J27/$R$27</f>
         <v>0.125</v>
       </c>
-      <c r="J28" s="10">
+      <c r="K28" s="9">
         <f t="shared" si="14"/>
         <v>0.125</v>
       </c>
-      <c r="K28" s="10">
+      <c r="L28" s="9">
         <f t="shared" si="14"/>
         <v>0.125</v>
       </c>
-      <c r="L28" s="10">
+      <c r="M28" s="9">
         <f t="shared" si="14"/>
         <v>0.125</v>
       </c>
-      <c r="M28" s="10">
+      <c r="N28" s="9">
         <f t="shared" si="14"/>
         <v>0.125</v>
       </c>
-      <c r="N28" s="10">
+      <c r="O28" s="9">
         <f t="shared" si="14"/>
         <v>0.125</v>
       </c>
-      <c r="O28" s="10">
+      <c r="P28" s="9">
         <f t="shared" si="14"/>
         <v>0.125</v>
       </c>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="5">
-        <f>SUM(H28:O28)</f>
-        <v>1</v>
-      </c>
-      <c r="S28" s="37">
-        <f>SUMPRODUCT($H28:$O28,$H$11:$O$11)</f>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="4">
+        <f>SUM(I28:P28)</f>
+        <v>1</v>
+      </c>
+      <c r="T28" s="33">
+        <f>SUMPRODUCT($I28:$P28,$I$11:$P$11)</f>
         <v>0.5</v>
       </c>
-      <c r="T28" s="38">
-        <f>SUMPRODUCT($H28:$O28,$H$11:$O$11)</f>
+      <c r="U28" s="34">
+        <f>SUMPRODUCT($I28:$P28,$I$11:$P$11)</f>
         <v>0.5</v>
       </c>
-      <c r="U28" s="42">
-        <f>(T28-S28)/S28</f>
+      <c r="V28" s="38">
+        <f>(U28-T28)/T28</f>
         <v>0</v>
       </c>
-      <c r="V28" s="38">
-        <f>SUMPRODUCT($H28:$O28,$H$21:$O$21)</f>
+      <c r="W28" s="34">
+        <f>SUMPRODUCT($I28:$P28,$I$21:$P$21)</f>
         <v>0.37875000000000003</v>
       </c>
-      <c r="W28" s="44">
-        <f>(V28-S28)/S28</f>
+      <c r="X28" s="40">
+        <f>(W28-T28)/T28</f>
         <v>-0.24249999999999994</v>
       </c>
-      <c r="X28" s="38">
-        <f>SUMPRODUCT($H28:$O28,$H$12:$O$12)</f>
+      <c r="Y28" s="34">
+        <f>SUMPRODUCT($I28:$P28,$I$12:$P$12)</f>
         <v>0.5</v>
       </c>
-      <c r="Y28" s="38">
-        <f>SUMPRODUCT($H28:$O28,$H$12:$O$12)</f>
+      <c r="Z28" s="34">
+        <f>SUMPRODUCT($I28:$P28,$I$12:$P$12)</f>
         <v>0.5</v>
       </c>
-      <c r="Z28" s="42">
-        <f>(Y28-X28)/X28</f>
+      <c r="AA28" s="38">
+        <f>(Z28-Y28)/Y28</f>
         <v>0</v>
       </c>
-      <c r="AA28" s="38">
-        <f>SUMPRODUCT($H28:$O28,$H$22:$O$22)</f>
+      <c r="AB28" s="34">
+        <f>SUMPRODUCT($I28:$P28,$I$22:$P$22)</f>
         <v>0.62124999999999997</v>
       </c>
-      <c r="AB28" s="47">
-        <f>(AA28-X28)/X28</f>
+      <c r="AC28" s="43">
+        <f>(AB28-Y28)/Y28</f>
         <v>0.24249999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="80"/>
-      <c r="E29" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="8" t="s">
+    <row r="29" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="85"/>
+      <c r="F29" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="76">
-        <v>1</v>
-      </c>
-      <c r="I29" s="77">
-        <v>1</v>
-      </c>
-      <c r="J29" s="77">
-        <v>1</v>
-      </c>
-      <c r="K29" s="77">
-        <v>1</v>
-      </c>
-      <c r="L29" s="77">
-        <v>1</v>
-      </c>
-      <c r="M29" s="77">
-        <v>1</v>
-      </c>
-      <c r="N29" s="77">
-        <v>1</v>
-      </c>
-      <c r="O29" s="78">
-        <v>1</v>
-      </c>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="8">
-        <f>SUM(H29:O29)</f>
+      <c r="H29" s="16"/>
+      <c r="I29" s="66">
+        <v>1</v>
+      </c>
+      <c r="J29" s="67">
+        <v>1</v>
+      </c>
+      <c r="K29" s="67">
+        <v>1</v>
+      </c>
+      <c r="L29" s="67">
+        <v>1</v>
+      </c>
+      <c r="M29" s="67">
+        <v>1</v>
+      </c>
+      <c r="N29" s="67">
+        <v>1</v>
+      </c>
+      <c r="O29" s="67">
+        <v>1</v>
+      </c>
+      <c r="P29" s="68">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="7">
+        <f>SUM(I29:P29)</f>
         <v>8</v>
       </c>
-      <c r="S29" s="37"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="42"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="34"/>
       <c r="V29" s="38"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="46"/>
-      <c r="AA29" s="39"/>
-      <c r="AB29" s="48"/>
-    </row>
-    <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="80"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="5" t="s">
+      <c r="W29" s="34"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="42"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="44"/>
+    </row>
+    <row r="30" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="85"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="6">
-        <f>H29/$Q$29</f>
+      <c r="H30" s="17"/>
+      <c r="I30" s="5">
+        <f>I29/$R$29</f>
         <v>0.125</v>
       </c>
-      <c r="I30" s="6">
-        <f t="shared" ref="I30:N30" si="15">I29/$Q$29</f>
+      <c r="J30" s="5">
+        <f t="shared" ref="J30:O30" si="15">J29/$R$29</f>
         <v>0.125</v>
       </c>
-      <c r="J30" s="6">
+      <c r="K30" s="5">
         <f t="shared" si="15"/>
         <v>0.125</v>
       </c>
-      <c r="K30" s="6">
+      <c r="L30" s="5">
         <f t="shared" si="15"/>
         <v>0.125</v>
       </c>
-      <c r="L30" s="6">
+      <c r="M30" s="5">
         <f t="shared" si="15"/>
         <v>0.125</v>
       </c>
-      <c r="M30" s="6">
+      <c r="N30" s="5">
         <f t="shared" si="15"/>
         <v>0.125</v>
       </c>
-      <c r="N30" s="6">
+      <c r="O30" s="5">
         <f t="shared" si="15"/>
         <v>0.125</v>
       </c>
-      <c r="O30" s="6">
-        <f>O29/$Q$29</f>
+      <c r="P30" s="5">
+        <f>P29/$R$29</f>
         <v>0.125</v>
       </c>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="5">
-        <f>SUM(H30:O30)</f>
-        <v>1</v>
-      </c>
-      <c r="S30" s="40">
-        <f>SUMPRODUCT($H30:$O30,$H$11:$O$11)</f>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="4">
+        <f>SUM(I30:P30)</f>
+        <v>1</v>
+      </c>
+      <c r="T30" s="36">
+        <f>SUMPRODUCT($I30:$P30,$I$11:$P$11)</f>
         <v>0.5</v>
       </c>
-      <c r="T30" s="41">
-        <f>SUMPRODUCT($H30:$O30,$H$11:$O$11)</f>
+      <c r="U30" s="37">
+        <f>SUMPRODUCT($I30:$P30,$I$11:$P$11)</f>
         <v>0.5</v>
       </c>
-      <c r="U30" s="43">
-        <f>(T30-S30)/S30</f>
+      <c r="V30" s="39">
+        <f>(U30-T30)/T30</f>
         <v>0</v>
       </c>
-      <c r="V30" s="41">
-        <f>SUMPRODUCT($H30:$O30,$H$21:$O$21)</f>
+      <c r="W30" s="37">
+        <f>SUMPRODUCT($I30:$P30,$I$21:$P$21)</f>
         <v>0.37875000000000003</v>
       </c>
-      <c r="W30" s="45">
-        <f>(V30-S30)/S30</f>
+      <c r="X30" s="41">
+        <f>(W30-T30)/T30</f>
         <v>-0.24249999999999994</v>
       </c>
-      <c r="X30" s="41">
-        <f>SUMPRODUCT($H30:$O30,$H$12:$O$12)</f>
+      <c r="Y30" s="37">
+        <f>SUMPRODUCT($I30:$P30,$I$12:$P$12)</f>
         <v>0.5</v>
       </c>
-      <c r="Y30" s="41">
-        <f>SUMPRODUCT($H30:$O30,$H$12:$O$12)</f>
+      <c r="Z30" s="37">
+        <f>SUMPRODUCT($I30:$P30,$I$12:$P$12)</f>
         <v>0.5</v>
       </c>
-      <c r="Z30" s="43">
-        <f>(Y30-X30)/X30</f>
+      <c r="AA30" s="39">
+        <f>(Z30-Y30)/Y30</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="41">
-        <f>SUMPRODUCT($H30:$O30,$H$22:$O$22)</f>
+      <c r="AB30" s="37">
+        <f>SUMPRODUCT($I30:$P30,$I$22:$P$22)</f>
         <v>0.62124999999999997</v>
       </c>
-      <c r="AB30" s="49">
-        <f>(AA30-X30)/X30</f>
+      <c r="AC30" s="45">
+        <f>(AB30-Y30)/Y30</f>
         <v>0.24249999999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="80"/>
-      <c r="D31" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" s="8" t="s">
+    <row r="31" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="85"/>
+      <c r="E31" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="123" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="10">
-        <f>H29</f>
-        <v>1</v>
-      </c>
-      <c r="I31" s="10">
-        <f t="shared" ref="I31:O31" si="16">I29</f>
-        <v>1</v>
-      </c>
-      <c r="J31" s="10">
+      <c r="H31" s="16"/>
+      <c r="I31" s="9">
+        <f>I29</f>
+        <v>1</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" ref="J31:P31" si="16">J29</f>
+        <v>1</v>
+      </c>
+      <c r="K31" s="9">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="K31" s="10">
+      <c r="L31" s="9">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="L31" s="10">
+      <c r="M31" s="9">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="M31" s="10">
+      <c r="N31" s="9">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="N31" s="10">
+      <c r="O31" s="9">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="O31" s="10">
+      <c r="P31" s="9">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="8">
-        <f>SUM(H31:O31)*(1/D32)</f>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="7">
+        <f>SUM(I31:P31)*(1/E32)</f>
         <v>38.799999999999955</v>
       </c>
-      <c r="S31" s="37"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="42"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="34"/>
       <c r="V31" s="38"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="46"/>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="48"/>
-    </row>
-    <row r="32" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="80"/>
-      <c r="D32" s="68">
-        <f>B18/AB30</f>
+      <c r="W31" s="34"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="42"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="44"/>
+    </row>
+    <row r="32" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="85"/>
+      <c r="E32" s="58">
+        <f>B18/AC30</f>
         <v>0.20618556701030952</v>
       </c>
-      <c r="E32" s="92"/>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="124"/>
+      <c r="G32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="6">
-        <f>H31/$Q$31</f>
+      <c r="H32" s="18"/>
+      <c r="I32" s="5">
+        <f>I31/$R$31</f>
         <v>2.577319587628869E-2</v>
       </c>
-      <c r="I32" s="6">
-        <f t="shared" ref="I32:O32" si="17">I31/$Q$31</f>
+      <c r="J32" s="5">
+        <f t="shared" ref="J32:P32" si="17">J31/$R$31</f>
         <v>2.577319587628869E-2</v>
       </c>
-      <c r="J32" s="6">
+      <c r="K32" s="5">
         <f t="shared" si="17"/>
         <v>2.577319587628869E-2</v>
       </c>
-      <c r="K32" s="6">
+      <c r="L32" s="5">
         <f t="shared" si="17"/>
         <v>2.577319587628869E-2</v>
       </c>
-      <c r="L32" s="6">
+      <c r="M32" s="5">
         <f t="shared" si="17"/>
         <v>2.577319587628869E-2</v>
       </c>
-      <c r="M32" s="6">
+      <c r="N32" s="5">
         <f t="shared" si="17"/>
         <v>2.577319587628869E-2</v>
       </c>
-      <c r="N32" s="6">
+      <c r="O32" s="5">
         <f t="shared" si="17"/>
         <v>2.577319587628869E-2</v>
       </c>
-      <c r="O32" s="6">
+      <c r="P32" s="5">
         <f t="shared" si="17"/>
         <v>2.577319587628869E-2</v>
       </c>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="5">
-        <f>SUM(H32:O32)</f>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="4">
+        <f>SUM(I32:P32)</f>
         <v>0.20618556701030949</v>
       </c>
-      <c r="S32" s="40">
-        <f>SUMPRODUCT($H32:$O32,$H$11:$O$11)</f>
+      <c r="T32" s="36">
+        <f>SUMPRODUCT($I32:$P32,$I$11:$P$11)</f>
         <v>0.10309278350515474</v>
       </c>
-      <c r="T32" s="41">
-        <f>SUMPRODUCT($H32:$O32,$H$11:$O$11)</f>
+      <c r="U32" s="37">
+        <f>SUMPRODUCT($I32:$P32,$I$11:$P$11)</f>
         <v>0.10309278350515474</v>
       </c>
-      <c r="U32" s="43">
-        <f>(T32-S32)/S32</f>
+      <c r="V32" s="39">
+        <f>(U32-T32)/T32</f>
         <v>0</v>
       </c>
-      <c r="V32" s="41">
-        <f>SUMPRODUCT($H32:$O32,$H$21:$O$21)</f>
+      <c r="W32" s="37">
+        <f>SUMPRODUCT($I32:$P32,$I$21:$P$21)</f>
         <v>7.8092783505154723E-2</v>
       </c>
-      <c r="W32" s="45">
-        <f>(V32-S32)/S32</f>
+      <c r="X32" s="41">
+        <f>(W32-T32)/T32</f>
         <v>-0.24249999999999997</v>
       </c>
-      <c r="X32" s="41">
-        <f>SUMPRODUCT($H32:$O32,$H$12:$O$12)</f>
+      <c r="Y32" s="37">
+        <f>SUMPRODUCT($I32:$P32,$I$12:$P$12)</f>
         <v>0.10309278350515473</v>
       </c>
-      <c r="Y32" s="41">
-        <f>SUMPRODUCT($H32:$O32,$H$12:$O$12)</f>
+      <c r="Z32" s="37">
+        <f>SUMPRODUCT($I32:$P32,$I$12:$P$12)</f>
         <v>0.10309278350515473</v>
       </c>
-      <c r="Z32" s="43">
-        <f>(Y32-X32)/X32</f>
+      <c r="AA32" s="39">
+        <f>(Z32-Y32)/Y32</f>
         <v>0</v>
       </c>
-      <c r="AA32" s="41">
-        <f>SUMPRODUCT($H32:$O32,$H$22:$O$22)</f>
+      <c r="AB32" s="37">
+        <f>SUMPRODUCT($I32:$P32,$I$22:$P$22)</f>
         <v>0.12809278350515477</v>
       </c>
-      <c r="AB32" s="49">
-        <f>(AA32-X32)/X32</f>
+      <c r="AC32" s="45">
+        <f>(AB32-Y32)/Y32</f>
         <v>0.24250000000000013</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B33" s="80"/>
-      <c r="E33" s="74"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="X33" s="2"/>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B34" s="80"/>
-      <c r="E34" s="66"/>
-      <c r="Q34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="17"/>
-    </row>
-    <row r="35" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="75"/>
-      <c r="Q35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="17"/>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="E36" s="69">
-        <v>1</v>
-      </c>
-      <c r="F36" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="17"/>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="E37" s="71">
-        <f>D32</f>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B33" s="85"/>
+      <c r="F33" s="64"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y33" s="1"/>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B34" s="85"/>
+      <c r="F34" s="56"/>
+      <c r="R34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="15"/>
+    </row>
+    <row r="35" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="65"/>
+      <c r="R35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="15"/>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F36" s="59">
+        <v>1</v>
+      </c>
+      <c r="G36" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="15"/>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F37" s="61">
+        <f>E32</f>
         <v>0.20618556701030952</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="G37" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="15"/>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F38" s="62">
+        <f>AC32</f>
+        <v>0.24250000000000013</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="15"/>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F39" s="24">
+        <f>F37*(1+F38)</f>
+        <v>0.25618556701030959</v>
+      </c>
+      <c r="G39" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="17"/>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="E38" s="72">
-        <f>AB32</f>
-        <v>0.24250000000000013</v>
-      </c>
-      <c r="F38" s="30" t="s">
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="15"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F40" s="61">
+        <f>(1-E32)+F39</f>
+        <v>1.05</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="15"/>
+    </row>
+    <row r="41" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="63">
+        <f>(F40-F36)/F36</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="G41" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="17"/>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="E39" s="28">
-        <f>E37*(1+E38)</f>
-        <v>0.25618556701030959</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="17"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="E40" s="71">
-        <f>(1-D32)+E39</f>
-        <v>1.05</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="17"/>
-    </row>
-    <row r="41" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="73">
-        <f>(E40-E36)/E36</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="F41" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="17"/>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="17"/>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="17"/>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="E44" t="s">
-        <v>39</v>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="15"/>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="15"/>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="15"/>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="E3:T4"/>
-    <mergeCell ref="S24:W25"/>
-    <mergeCell ref="X24:AB25"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E13:E14"/>
+  <mergeCells count="16">
     <mergeCell ref="B24:B34"/>
+    <mergeCell ref="D19:E22"/>
+    <mergeCell ref="D11:E14"/>
+    <mergeCell ref="D8:E10"/>
+    <mergeCell ref="F3:R5"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="T24:X25"/>
+    <mergeCell ref="Y24:AC25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/Notes/ContinuousEstimation.xlsx
+++ b/docs/Notes/ContinuousEstimation.xlsx
@@ -872,76 +872,7 @@
     <xf numFmtId="166" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -960,60 +891,129 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1157,11 +1157,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="111287808"/>
-        <c:axId val="67454080"/>
+        <c:axId val="155042560"/>
+        <c:axId val="155044096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111287808"/>
+        <c:axId val="155042560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1170,7 +1170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67454080"/>
+        <c:crossAx val="155044096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1178,7 +1178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67454080"/>
+        <c:axId val="155044096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1189,7 +1189,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111287808"/>
+        <c:crossAx val="155042560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1531,7 +1531,7 @@
   <dimension ref="A2:AC44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,60 +1558,60 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H7" s="101"/>
+      <c r="H7" s="78"/>
       <c r="L7" s="1"/>
       <c r="R7" s="1"/>
     </row>
@@ -1620,58 +1620,58 @@
         <f>COUNT(I11:P11)&amp;" Markets"</f>
         <v>8 Markets</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="93"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="102" t="s">
+      <c r="E8" s="102"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="103">
+      <c r="H8" s="80">
         <v>0</v>
       </c>
-      <c r="I8" s="104">
+      <c r="I8" s="81">
         <v>3.2</v>
       </c>
-      <c r="J8" s="104">
+      <c r="J8" s="81">
         <v>3.4</v>
       </c>
-      <c r="K8" s="104">
+      <c r="K8" s="81">
         <v>3.6</v>
       </c>
-      <c r="L8" s="104">
+      <c r="L8" s="81">
         <v>3.8</v>
       </c>
-      <c r="M8" s="104">
+      <c r="M8" s="81">
         <v>4</v>
       </c>
-      <c r="N8" s="104">
+      <c r="N8" s="81">
         <v>4.2</v>
       </c>
-      <c r="O8" s="104">
+      <c r="O8" s="81">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P8" s="104">
+      <c r="P8" s="81">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Q8" s="103" t="s">
+      <c r="Q8" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="R8" s="105"/>
+      <c r="R8" s="82"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="49" t="str">
         <f>COUNT(I13:Q13)&amp;" Partitions"</f>
         <v>9 Partitions</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="95"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="56"/>
       <c r="G9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="106" t="s">
+      <c r="H9" s="83" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="16">
@@ -1706,15 +1706,15 @@
         <f t="shared" si="0"/>
         <v>1.5260563034950492</v>
       </c>
-      <c r="Q9" s="106" t="s">
+      <c r="Q9" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="R9" s="107"/>
+      <c r="R9" s="84"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="121"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="91"/>
       <c r="G10" s="50" t="s">
         <v>15</v>
       </c>
@@ -1759,11 +1759,11 @@
       <c r="R10" s="6"/>
     </row>
     <row r="11" spans="1:25" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="108" t="s">
+      <c r="E11" s="96"/>
+      <c r="F11" s="117" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="7" t="s">
@@ -1805,9 +1805,9 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="109"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="118"/>
       <c r="G12" s="4" t="s">
         <v>3</v>
       </c>
@@ -1857,9 +1857,9 @@
     <row r="13" spans="1:25" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="110" t="s">
+      <c r="D13" s="97"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="120" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="7" t="s">
@@ -1914,9 +1914,9 @@
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="111"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="121"/>
       <c r="G14" s="4" t="s">
         <v>3</v>
       </c>
@@ -1970,11 +1970,11 @@
       <c r="B15" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="126" t="s">
+      <c r="D15" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="99"/>
-      <c r="F15" s="112" t="s">
+      <c r="E15" s="109"/>
+      <c r="F15" s="85" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="7"/>
@@ -2024,10 +2024,10 @@
         <f>EXP(I16)</f>
         <v>3.9879067517565376</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="113" t="s">
+      <c r="C16" s="92"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="86" t="s">
         <v>39</v>
       </c>
       <c r="G16" s="54"/>
@@ -2056,11 +2056,11 @@
       <c r="B17" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="126" t="s">
+      <c r="D17" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="114" t="s">
+      <c r="E17" s="109"/>
+      <c r="F17" s="87" t="s">
         <v>39</v>
       </c>
       <c r="G17" s="20"/>
@@ -2090,9 +2090,9 @@
       <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="127"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="112" t="s">
+      <c r="D18" s="110"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="85" t="s">
         <v>18</v>
       </c>
       <c r="G18" s="19"/>
@@ -2136,10 +2136,10 @@
       <c r="B19" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="87"/>
+      <c r="E19" s="96"/>
       <c r="F19" s="115" t="s">
         <v>8</v>
       </c>
@@ -2203,8 +2203,8 @@
         <f>B16*(1+B18)</f>
         <v>4.1873020893443647</v>
       </c>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="98"/>
       <c r="F20" s="116"/>
       <c r="G20" s="4" t="s">
         <v>3</v>
@@ -2264,9 +2264,9 @@
       <c r="AB20" s="3"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="108" t="s">
+      <c r="D21" s="97"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="117" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
@@ -2326,48 +2326,48 @@
       <c r="AB21" s="3"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D22" s="90"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="118" t="s">
+      <c r="D22" s="99"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="118">
-        <v>1</v>
-      </c>
-      <c r="I22" s="119">
+      <c r="H22" s="88">
+        <v>1</v>
+      </c>
+      <c r="I22" s="89">
         <f>1-I21</f>
         <v>1</v>
       </c>
-      <c r="J22" s="119">
+      <c r="J22" s="89">
         <f t="shared" ref="J22:O22" si="12">1-J21</f>
         <v>0.97</v>
       </c>
-      <c r="K22" s="119">
+      <c r="K22" s="89">
         <f t="shared" si="12"/>
         <v>0.87</v>
       </c>
-      <c r="L22" s="119">
+      <c r="L22" s="89">
         <f t="shared" si="12"/>
         <v>0.75</v>
       </c>
-      <c r="M22" s="119">
+      <c r="M22" s="89">
         <f t="shared" si="12"/>
         <v>0.6</v>
       </c>
-      <c r="N22" s="119">
+      <c r="N22" s="89">
         <f t="shared" si="12"/>
         <v>0.4</v>
       </c>
-      <c r="O22" s="119">
+      <c r="O22" s="89">
         <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
-      <c r="P22" s="119">
+      <c r="P22" s="89">
         <f>1-P21</f>
         <v>0.13</v>
       </c>
-      <c r="Q22" s="120">
+      <c r="Q22" s="90">
         <f>1-Q21</f>
         <v>0</v>
       </c>
@@ -2409,7 +2409,7 @@
       <c r="AB23" s="3"/>
     </row>
     <row r="24" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="94" t="s">
         <v>40</v>
       </c>
       <c r="H24" s="1"/>
@@ -2450,23 +2450,23 @@
         <v>0</v>
       </c>
       <c r="R24" s="8"/>
-      <c r="T24" s="78" t="s">
+      <c r="T24" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="U24" s="79"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="80"/>
-      <c r="Y24" s="78" t="s">
+      <c r="U24" s="123"/>
+      <c r="V24" s="123"/>
+      <c r="W24" s="123"/>
+      <c r="X24" s="124"/>
+      <c r="Y24" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="Z24" s="79"/>
-      <c r="AA24" s="79"/>
-      <c r="AB24" s="79"/>
-      <c r="AC24" s="80"/>
+      <c r="Z24" s="123"/>
+      <c r="AA24" s="123"/>
+      <c r="AB24" s="123"/>
+      <c r="AC24" s="124"/>
     </row>
     <row r="25" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="85"/>
+      <c r="B25" s="94"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2478,19 +2478,19 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="8"/>
-      <c r="T25" s="81"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="82"/>
-      <c r="W25" s="82"/>
-      <c r="X25" s="83"/>
-      <c r="Y25" s="81"/>
-      <c r="Z25" s="82"/>
-      <c r="AA25" s="82"/>
-      <c r="AB25" s="82"/>
-      <c r="AC25" s="83"/>
+      <c r="T25" s="125"/>
+      <c r="U25" s="126"/>
+      <c r="V25" s="126"/>
+      <c r="W25" s="126"/>
+      <c r="X25" s="127"/>
+      <c r="Y25" s="125"/>
+      <c r="Z25" s="126"/>
+      <c r="AA25" s="126"/>
+      <c r="AB25" s="126"/>
+      <c r="AC25" s="127"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B26" s="85"/>
+      <c r="B26" s="94"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -2534,8 +2534,8 @@
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B27" s="85"/>
-      <c r="F27" s="85" t="s">
+      <c r="B27" s="94"/>
+      <c r="F27" s="94" t="s">
         <v>0</v>
       </c>
       <c r="G27" s="7" t="s">
@@ -2583,8 +2583,8 @@
       <c r="AC27" s="26"/>
     </row>
     <row r="28" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="85"/>
-      <c r="F28" s="84"/>
+      <c r="B28" s="94"/>
+      <c r="F28" s="114"/>
       <c r="G28" s="4" t="s">
         <v>6</v>
       </c>
@@ -2668,8 +2668,8 @@
       </c>
     </row>
     <row r="29" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="85"/>
-      <c r="F29" s="84" t="s">
+      <c r="B29" s="94"/>
+      <c r="F29" s="114" t="s">
         <v>34</v>
       </c>
       <c r="G29" s="7" t="s">
@@ -2717,8 +2717,8 @@
       <c r="AC29" s="44"/>
     </row>
     <row r="30" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="85"/>
-      <c r="F30" s="84"/>
+      <c r="B30" s="94"/>
+      <c r="F30" s="114"/>
       <c r="G30" s="4" t="s">
         <v>6</v>
       </c>
@@ -2802,11 +2802,11 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="85"/>
+      <c r="B31" s="94"/>
       <c r="E31" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="123" t="s">
+      <c r="F31" s="112" t="s">
         <v>43</v>
       </c>
       <c r="G31" s="7" t="s">
@@ -2862,12 +2862,12 @@
       <c r="AC31" s="44"/>
     </row>
     <row r="32" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="85"/>
+      <c r="B32" s="94"/>
       <c r="E32" s="58">
         <f>B18/AC30</f>
         <v>0.20618556701030952</v>
       </c>
-      <c r="F32" s="124"/>
+      <c r="F32" s="113"/>
       <c r="G32" s="4" t="s">
         <v>6</v>
       </c>
@@ -2951,7 +2951,7 @@
       </c>
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B33" s="85"/>
+      <c r="B33" s="94"/>
       <c r="F33" s="64"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2974,7 +2974,7 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B34" s="85"/>
+      <c r="B34" s="94"/>
       <c r="F34" s="56"/>
       <c r="R34" s="1"/>
       <c r="T34" s="1"/>
@@ -3101,6 +3101,8 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="T24:X25"/>
+    <mergeCell ref="Y24:AC25"/>
     <mergeCell ref="B24:B34"/>
     <mergeCell ref="D19:E22"/>
     <mergeCell ref="D11:E14"/>
@@ -3115,8 +3117,6 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="T24:X25"/>
-    <mergeCell ref="Y24:AC25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
